--- a/Resultados_Simulaciones/Datos Simulacion Original.xlsx
+++ b/Resultados_Simulaciones/Datos Simulacion Original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis documentos\Desktop\SEMESTRE III\ALGORITMOS Y ESTRUCTURAS DE DATOS\HDT 5\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis documentos\Desktop\SEMESTRE III\ALGORITMOS Y ESTRUCTURAS DE DATOS\HDT 5\Repositorio\Resultados_Simulaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDBE91-7E85-4A75-8C83-2860A6AD1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67EB553-D18C-467E-A78C-F2EA299B2843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{B76EE2D5-465F-4EB6-94E8-1B049F4F9D7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B76EE2D5-465F-4EB6-94E8-1B049F4F9D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulación original" sheetId="1" r:id="rId1"/>
@@ -2598,6 +2598,7 @@
         <c:axId val="1463525456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4987,15 +4988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>233881</xdr:colOff>
+      <xdr:colOff>266727</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133539</xdr:rowOff>
+      <xdr:rowOff>8729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>22634</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>100343</xdr:rowOff>
+      <xdr:colOff>55480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5342,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E9FC91-A355-4E18-9CBA-065D5492EDF0}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
